--- a/sprints/Sprint1/sprint1_backlog.xlsx
+++ b/sprints/Sprint1/sprint1_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrivera/CS_Capstone/Project/CapstoneProjectGroup7/sprints/Sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8428C-7088-234F-A422-260AC3A63F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A999A-EE48-9549-8BEB-69251924F715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55840" yWindow="-8660" windowWidth="25520" windowHeight="24160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38340" yWindow="-7040" windowWidth="25520" windowHeight="24160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Related User Story</t>
   </si>
   <si>
-    <t>Task Description</t>
-  </si>
-  <si>
     <t>Initial Estimate</t>
   </si>
   <si>
@@ -53,25 +50,13 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
     <t>Amount Remaining After…</t>
   </si>
   <si>
     <t>Estimate Totals</t>
   </si>
   <si>
-    <t>Code Things…</t>
-  </si>
-  <si>
     <t>That User Story</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
   </si>
   <si>
     <t>View Projects</t>
@@ -140,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +162,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -205,7 +184,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,23 +299,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$G$38</c:f>
+              <c:f>Sheet1!$B$19:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1080,16 +1052,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505884</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1380,436 +1352,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <f>SUM(C3:C37)</f>
+      <c r="B19" s="3">
+        <f>SUM(B3:B18)</f>
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SUM(C3:C18)</f>
+        <v>27</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(D3:D18)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" ref="D38:G38" si="0">SUM(D3:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/sprints/Sprint1/sprint1_backlog.xlsx
+++ b/sprints/Sprint1/sprint1_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrivera/CS_Capstone/Project/CapstoneProjectGroup7/sprints/Sprint1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Documents\GitHub\CapstoneProjectGroup7\sprints\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A999A-EE48-9549-8BEB-69251924F715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132BAA2-4798-40E7-AA5B-BFEBF1647674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38340" yWindow="-7040" windowWidth="25520" windowHeight="24160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Related User Story</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Estimate Totals</t>
   </si>
   <si>
-    <t>That User Story</t>
-  </si>
-  <si>
     <t>View Projects</t>
   </si>
   <si>
@@ -102,6 +99,30 @@
   </si>
   <si>
     <t>Edit Description of Project</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Test Controller Classes</t>
+  </si>
+  <si>
+    <t>Test Model Classes</t>
+  </si>
+  <si>
+    <t>UML Class Diagram</t>
+  </si>
+  <si>
+    <t>Use Case Scenarios</t>
+  </si>
+  <si>
+    <t>Test ViewModel Classes</t>
   </si>
 </sst>
 </file>
@@ -175,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -184,6 +205,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,18 +323,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$D$19</c:f>
+              <c:f>Sheet1!$C$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,15 +1076,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>110595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>505884</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>186795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1352,282 +1376,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
-        <f>SUM(B3:B18)</f>
-        <v>27</v>
-      </c>
-      <c r="C19" s="3">
-        <f>SUM(C3:C18)</f>
-        <v>27</v>
-      </c>
-      <c r="D19" s="3">
-        <f>SUM(D3:D18)</f>
-        <v>0</v>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <f>SUM(C3:C22)</f>
+        <v>57</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(D3:D22)</f>
+        <v>46</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM(E3:E22)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprints/Sprint1/sprint1_backlog.xlsx
+++ b/sprints/Sprint1/sprint1_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Documents\GitHub\CapstoneProjectGroup7\sprints\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132BAA2-4798-40E7-AA5B-BFEBF1647674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15A656-0AE5-4371-BD3E-A9E3D2487937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,10 +119,10 @@
     <t>UML Class Diagram</t>
   </si>
   <si>
-    <t>Use Case Scenarios</t>
-  </si>
-  <si>
     <t>Test ViewModel Classes</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
